--- a/filters/net.sf.okapi.filters.openxml.tests/ootput/Tagsample.xlsx
+++ b/filters/net.sf.okapi.filters.openxml.tests/ootput/Tagsample.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="20055" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="eetshay1" sheetId="1" r:id="rId1"/>
-    <sheet name="eetshay2" sheetId="2" r:id="rId2"/>
-    <sheet name="eetshay3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
